--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2448.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2448.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.047518349324582</v>
+        <v>1.978041291236877</v>
       </c>
       <c r="B1">
-        <v>2.225161312447328</v>
+        <v>2.152907848358154</v>
       </c>
       <c r="C1">
-        <v>6.924123276276303</v>
+        <v>2.44899320602417</v>
       </c>
       <c r="D1">
-        <v>2.841196361035802</v>
+        <v>3.743246078491211</v>
       </c>
       <c r="E1">
-        <v>0.9795631482358385</v>
+        <v>1.31428861618042</v>
       </c>
     </row>
   </sheetData>
